--- a/natmiOut/OldD7/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H2">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.590723693016302</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N2">
-        <v>0.590723693016302</v>
+        <v>2.029049</v>
       </c>
       <c r="O2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q2">
-        <v>0.388315901519703</v>
+        <v>0.4558858275204445</v>
       </c>
       <c r="R2">
-        <v>0.388315901519703</v>
+        <v>4.102972447684</v>
       </c>
       <c r="S2">
-        <v>0.03950820963522556</v>
+        <v>0.0373605304812812</v>
       </c>
       <c r="T2">
-        <v>0.03950820963522556</v>
+        <v>0.03736053048128121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H3">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40237919234935</v>
+        <v>3.724503</v>
       </c>
       <c r="N3">
-        <v>3.40237919234935</v>
+        <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.7313162078950657</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P3">
-        <v>0.7313162078950657</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q3">
-        <v>2.236575168744004</v>
+        <v>2.510459036116</v>
       </c>
       <c r="R3">
-        <v>2.236575168744004</v>
+        <v>22.594131325044</v>
       </c>
       <c r="S3">
-        <v>0.2275546282958349</v>
+        <v>0.2057359006989825</v>
       </c>
       <c r="T3">
-        <v>0.2275546282958349</v>
+        <v>0.2057359006989826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H4">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.659302128523424</v>
+        <v>0.31493</v>
       </c>
       <c r="N4">
-        <v>0.659302128523424</v>
+        <v>0.94479</v>
       </c>
       <c r="O4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q4">
-        <v>0.4333963635421125</v>
+        <v>0.2122749972933333</v>
       </c>
       <c r="R4">
-        <v>0.4333963635421125</v>
+        <v>1.91047497564</v>
       </c>
       <c r="S4">
-        <v>0.04409480610748927</v>
+        <v>0.01739625587820189</v>
       </c>
       <c r="T4">
-        <v>0.04409480610748927</v>
+        <v>0.01739625587820189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.960531503792738</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H5">
-        <v>0.960531503792738</v>
+        <v>2.022116</v>
       </c>
       <c r="I5">
-        <v>0.454664768950697</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J5">
-        <v>0.454664768950697</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.590723693016302</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N5">
-        <v>0.590723693016302</v>
+        <v>2.462372</v>
       </c>
       <c r="O5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q5">
-        <v>0.5674087171789483</v>
+        <v>0.5532446465724444</v>
       </c>
       <c r="R5">
-        <v>0.5674087171789483</v>
+        <v>4.979201819151999</v>
       </c>
       <c r="S5">
-        <v>0.05772955075861824</v>
+        <v>0.04533923240013096</v>
       </c>
       <c r="T5">
-        <v>0.05772955075861824</v>
+        <v>0.04533923240013097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.40237919234935</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N6">
-        <v>3.40237919234935</v>
+        <v>2.029049</v>
       </c>
       <c r="O6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q6">
-        <v>3.268092402100442</v>
+        <v>0.6582185357024445</v>
       </c>
       <c r="R6">
-        <v>3.268092402100442</v>
+        <v>5.923966821322001</v>
       </c>
       <c r="S6">
-        <v>0.3325037146925099</v>
+        <v>0.0539420007860469</v>
       </c>
       <c r="T6">
-        <v>0.3325037146925099</v>
+        <v>0.05394200078604691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.659302128523424</v>
+        <v>3.724503</v>
       </c>
       <c r="N7">
-        <v>0.659302128523424</v>
+        <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.1417121094477316</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P7">
-        <v>0.1417121094477316</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q7">
-        <v>0.6332804649643574</v>
+        <v>3.624659006578001</v>
       </c>
       <c r="R7">
-        <v>0.6332804649643574</v>
+        <v>32.62193105920201</v>
       </c>
       <c r="S7">
-        <v>0.06443150349956876</v>
+        <v>0.2970462671236141</v>
       </c>
       <c r="T7">
-        <v>0.06443150349956876</v>
+        <v>0.2970462671236141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.494727027838801</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
-        <v>0.494727027838801</v>
+        <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.2341775870107532</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J8">
-        <v>0.2341775870107532</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.590723693016302</v>
+        <v>0.31493</v>
       </c>
       <c r="N8">
-        <v>0.590723693016302</v>
+        <v>0.94479</v>
       </c>
       <c r="O8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q8">
-        <v>0.2922469769199154</v>
+        <v>0.3064875665133333</v>
       </c>
       <c r="R8">
-        <v>0.2922469769199154</v>
+        <v>2.75838809862</v>
       </c>
       <c r="S8">
-        <v>0.0297339222633588</v>
+        <v>0.02511711788263824</v>
       </c>
       <c r="T8">
-        <v>0.0297339222633588</v>
+        <v>0.02511711788263825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.494727027838801</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
-        <v>0.494727027838801</v>
+        <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.2341775870107532</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J9">
-        <v>0.2341775870107532</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40237919234935</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N9">
-        <v>3.40237919234935</v>
+        <v>2.462372</v>
       </c>
       <c r="O9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q9">
-        <v>1.683248945411574</v>
+        <v>0.7987874576684444</v>
       </c>
       <c r="R9">
-        <v>1.683248945411574</v>
+        <v>7.189087119016</v>
       </c>
       <c r="S9">
-        <v>0.1712578649067208</v>
+        <v>0.06546183574647031</v>
       </c>
       <c r="T9">
-        <v>0.1712578649067208</v>
+        <v>0.06546183574647033</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.048595</v>
+      </c>
+      <c r="H10">
+        <v>0.145785</v>
+      </c>
+      <c r="I10">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J10">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6763496666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.029049</v>
+      </c>
+      <c r="O10">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="P10">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="Q10">
+        <v>0.03286721205166667</v>
+      </c>
+      <c r="R10">
+        <v>0.295804908465</v>
+      </c>
+      <c r="S10">
+        <v>0.002693517551027527</v>
+      </c>
+      <c r="T10">
+        <v>0.002693517551027528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.048595</v>
+      </c>
+      <c r="H11">
+        <v>0.145785</v>
+      </c>
+      <c r="I11">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J11">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.724503</v>
+      </c>
+      <c r="N11">
+        <v>11.173509</v>
+      </c>
+      <c r="O11">
+        <v>0.672709052289864</v>
+      </c>
+      <c r="P11">
+        <v>0.6727090522898641</v>
+      </c>
+      <c r="Q11">
+        <v>0.180992223285</v>
+      </c>
+      <c r="R11">
+        <v>1.628930009565</v>
+      </c>
+      <c r="S11">
+        <v>0.01483258541221234</v>
+      </c>
+      <c r="T11">
+        <v>0.01483258541221234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.048595</v>
+      </c>
+      <c r="H12">
+        <v>0.145785</v>
+      </c>
+      <c r="I12">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J12">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.31493</v>
+      </c>
+      <c r="N12">
+        <v>0.94479</v>
+      </c>
+      <c r="O12">
+        <v>0.05688175357561716</v>
+      </c>
+      <c r="P12">
+        <v>0.05688175357561717</v>
+      </c>
+      <c r="Q12">
+        <v>0.01530402335</v>
+      </c>
+      <c r="R12">
+        <v>0.13773621015</v>
+      </c>
+      <c r="S12">
+        <v>0.001254187773205722</v>
+      </c>
+      <c r="T12">
+        <v>0.001254187773205722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.048595</v>
+      </c>
+      <c r="H13">
+        <v>0.145785</v>
+      </c>
+      <c r="I13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8207906666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.462372</v>
+      </c>
+      <c r="O13">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="P13">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="Q13">
+        <v>0.03988632244666666</v>
+      </c>
+      <c r="R13">
+        <v>0.35897690202</v>
+      </c>
+      <c r="S13">
+        <v>0.003268744224096487</v>
+      </c>
+      <c r="T13">
+        <v>0.003268744224096488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.508125</v>
+      </c>
+      <c r="H14">
+        <v>1.524375</v>
+      </c>
+      <c r="I14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6763496666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.029049</v>
+      </c>
+      <c r="O14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="P14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="Q14">
+        <v>0.3436701743750001</v>
+      </c>
+      <c r="R14">
+        <v>3.093031569375</v>
+      </c>
+      <c r="S14">
+        <v>0.02816428862261267</v>
+      </c>
+      <c r="T14">
+        <v>0.02816428862261267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.508125</v>
+      </c>
+      <c r="H15">
+        <v>1.524375</v>
+      </c>
+      <c r="I15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.724503</v>
+      </c>
+      <c r="N15">
+        <v>11.173509</v>
+      </c>
+      <c r="O15">
+        <v>0.672709052289864</v>
+      </c>
+      <c r="P15">
+        <v>0.6727090522898641</v>
+      </c>
+      <c r="Q15">
+        <v>1.892513086875</v>
+      </c>
+      <c r="R15">
+        <v>17.032617781875</v>
+      </c>
+      <c r="S15">
+        <v>0.155094299055055</v>
+      </c>
+      <c r="T15">
+        <v>0.155094299055055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="H10">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="I10">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="J10">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.659302128523424</v>
-      </c>
-      <c r="N10">
-        <v>0.659302128523424</v>
-      </c>
-      <c r="O10">
-        <v>0.1417121094477316</v>
-      </c>
-      <c r="P10">
-        <v>0.1417121094477316</v>
-      </c>
-      <c r="Q10">
-        <v>0.3261745824921887</v>
-      </c>
-      <c r="R10">
-        <v>0.3261745824921887</v>
-      </c>
-      <c r="S10">
-        <v>0.03318579984067354</v>
-      </c>
-      <c r="T10">
-        <v>0.03318579984067354</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.508125</v>
+      </c>
+      <c r="H16">
+        <v>1.524375</v>
+      </c>
+      <c r="I16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.31493</v>
+      </c>
+      <c r="N16">
+        <v>0.94479</v>
+      </c>
+      <c r="O16">
+        <v>0.05688175357561716</v>
+      </c>
+      <c r="P16">
+        <v>0.05688175357561717</v>
+      </c>
+      <c r="Q16">
+        <v>0.16002380625</v>
+      </c>
+      <c r="R16">
+        <v>1.44021425625</v>
+      </c>
+      <c r="S16">
+        <v>0.01311419204157131</v>
+      </c>
+      <c r="T16">
+        <v>0.01311419204157131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.508125</v>
+      </c>
+      <c r="H17">
+        <v>1.524375</v>
+      </c>
+      <c r="I17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8207906666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.462372</v>
+      </c>
+      <c r="O17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="P17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="Q17">
+        <v>0.4170642575</v>
+      </c>
+      <c r="R17">
+        <v>3.7535783175</v>
+      </c>
+      <c r="S17">
+        <v>0.03417904432285272</v>
+      </c>
+      <c r="T17">
+        <v>0.03417904432285272</v>
       </c>
     </row>
   </sheetData>
